--- a/config_3.16/act_ty_phb_config.xlsx
+++ b/config_3.16/act_ty_phb_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>line|</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>cnhk_009_thphb_rank</t>
+  </si>
+  <si>
+    <t>need_num|限制</t>
   </si>
 </sst>
 </file>
@@ -570,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -711,10 +714,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -724,11 +728,14 @@
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -739,7 +746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -750,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -761,7 +768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -772,7 +779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -783,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -794,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -805,7 +812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -815,11 +822,14 @@
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -829,11 +839,14 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4">
+        <v>1800000</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -843,11 +856,14 @@
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="4">
+        <v>900000</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -857,11 +873,14 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="4">
+        <v>450000</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -871,11 +890,14 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -885,11 +907,14 @@
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="4">
+        <v>180000</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -899,7 +924,10 @@
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>90000</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
